--- a/data/Exp_data/Growth_pHcontrol_A.xlsx
+++ b/data/Exp_data/Growth_pHcontrol_A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\EPS\LbPtEPS\data\Exp_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA4365C-689E-487C-AC96-000947944486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725F4EC7-5758-40BC-A0CC-4CEEE89AEE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Time</t>
   </si>
@@ -61,33 +61,6 @@
   </si>
   <si>
     <t>EPS_A3</t>
-  </si>
-  <si>
-    <t>Glu_A1</t>
-  </si>
-  <si>
-    <t>Glu_A2</t>
-  </si>
-  <si>
-    <t>Glu_A3</t>
-  </si>
-  <si>
-    <t>Lac_A1</t>
-  </si>
-  <si>
-    <t>Lac_A2</t>
-  </si>
-  <si>
-    <t>Lac_A3</t>
-  </si>
-  <si>
-    <t>Ac_A1</t>
-  </si>
-  <si>
-    <t>Ac_A2</t>
-  </si>
-  <si>
-    <t>Ac_A3</t>
   </si>
 </sst>
 </file>
@@ -414,15 +387,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,305 +420,838 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>6.5</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C2" s="1">
+        <v>0.14729999999999999</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.1409</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>6.5</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C3" s="1">
+        <v>0.23630000000000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.25209999999999999</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.26629999999999998</v>
+      </c>
+      <c r="F3" s="1">
+        <v>37.770000000000003</v>
+      </c>
+      <c r="G3" s="1">
+        <v>37.33</v>
+      </c>
+      <c r="H3" s="1">
+        <v>36.47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
         <v>6.5</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C4" s="1">
+        <v>0.53510000000000002</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.58560000000000001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.49349999999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>54.47</v>
+      </c>
+      <c r="G4" s="1">
+        <v>53.84</v>
+      </c>
+      <c r="H4" s="1">
+        <v>54.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>6</v>
       </c>
       <c r="B5">
         <v>6.5</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C5" s="1">
+        <v>1.1548</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.1640999999999999</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.1897</v>
+      </c>
+      <c r="F5" s="1">
+        <v>102.1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>101.22</v>
+      </c>
+      <c r="H5" s="1">
+        <v>101.54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>8</v>
       </c>
       <c r="B6">
         <v>6.5</v>
       </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C6" s="1">
+        <v>1.7816000000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.7837000000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.8149999999999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>122.57</v>
+      </c>
+      <c r="G6" s="1">
+        <v>123.87</v>
+      </c>
+      <c r="H6" s="1">
+        <v>120.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>10</v>
       </c>
       <c r="B7">
         <v>6.5</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C7" s="1">
+        <v>1.5264</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.5609</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.579</v>
+      </c>
+      <c r="F7" s="1">
+        <v>142.1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>141.43</v>
+      </c>
+      <c r="H7" s="1">
+        <v>140.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>12</v>
       </c>
       <c r="B8">
         <v>6.5</v>
       </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C8" s="1">
+        <v>1.4948999999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.5349999999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.5463</v>
+      </c>
+      <c r="F8" s="1">
+        <v>129.71</v>
+      </c>
+      <c r="G8" s="1">
+        <v>128.16999999999999</v>
+      </c>
+      <c r="H8" s="1">
+        <v>128.33000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>14</v>
       </c>
       <c r="B9">
         <v>6.5</v>
       </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C9" s="1">
+        <v>1.5102</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.5165999999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.5148999999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <v>129.28</v>
+      </c>
+      <c r="G9" s="1">
+        <v>130.26</v>
+      </c>
+      <c r="H9" s="1">
+        <v>132.47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0</v>
       </c>
       <c r="B10">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C10" s="1">
+        <v>0.1033</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.1007</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.1007</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C11" s="1">
+        <v>0.1623</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.16819999999999999</v>
+      </c>
+      <c r="F11" s="1">
+        <v>27</v>
+      </c>
+      <c r="G11" s="1">
+        <v>26.09</v>
+      </c>
+      <c r="H11" s="1">
+        <v>27.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>4</v>
       </c>
       <c r="B12">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C12" s="1">
+        <v>0.46260000000000001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.47170000000000001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>40.68</v>
+      </c>
+      <c r="G12" s="1">
+        <v>39.57</v>
+      </c>
+      <c r="H12" s="1">
+        <v>48.93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>6</v>
       </c>
       <c r="B13">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C13" s="1">
+        <v>1.0011000000000001</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.0024999999999999</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.0436000000000001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>65.19</v>
+      </c>
+      <c r="G13" s="1">
+        <v>64.48</v>
+      </c>
+      <c r="H13" s="1">
+        <v>64.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>8</v>
       </c>
       <c r="B14">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C14" s="1">
+        <v>1.4717</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.5037</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.5329999999999999</v>
+      </c>
+      <c r="F14" s="1">
+        <v>85.9</v>
+      </c>
+      <c r="G14" s="1">
+        <v>84.26</v>
+      </c>
+      <c r="H14" s="1">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>10</v>
       </c>
       <c r="B15">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C15" s="1">
+        <v>1.4807999999999999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.5216000000000001</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.5295000000000001</v>
+      </c>
+      <c r="F15" s="1">
+        <v>75.67</v>
+      </c>
+      <c r="G15" s="1">
+        <v>76.180000000000007</v>
+      </c>
+      <c r="H15" s="1">
+        <v>76.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C16" s="1">
+        <v>1.4248000000000001</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.4193</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.4026000000000001</v>
+      </c>
+      <c r="F16" s="1">
+        <v>86.64</v>
+      </c>
+      <c r="G16" s="1">
+        <v>86.62</v>
+      </c>
+      <c r="H16" s="1">
+        <v>84.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C17" s="1">
+        <v>1.4629000000000001</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.5167999999999999</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.5338000000000001</v>
+      </c>
+      <c r="F17" s="1">
+        <v>101.6</v>
+      </c>
+      <c r="G17" s="1">
+        <v>100.28</v>
+      </c>
+      <c r="H17" s="1">
+        <v>100.67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C18" s="1">
+        <v>9.1399999999999995E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>9.0700000000000003E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>9.1200000000000003E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C19" s="1">
+        <v>0.15409999999999999</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.15609999999999999</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.15679999999999999</v>
+      </c>
+      <c r="F19" s="1">
+        <v>36.380000000000003</v>
+      </c>
+      <c r="G19" s="1">
+        <v>35.56</v>
+      </c>
+      <c r="H19" s="1">
+        <v>36.630000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>4</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C20" s="1">
+        <v>0.38950000000000001</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.38690000000000002</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.3967</v>
+      </c>
+      <c r="F20" s="1">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="G20" s="1">
+        <v>37.26</v>
+      </c>
+      <c r="H20" s="1">
+        <v>36.57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>6</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C21" s="1">
+        <v>0.85950000000000004</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.88039999999999996</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.88390000000000002</v>
+      </c>
+      <c r="F21" s="1">
+        <v>56.38</v>
+      </c>
+      <c r="G21" s="1">
+        <v>56.26</v>
+      </c>
+      <c r="H21" s="1">
+        <v>55.24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>8</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C22" s="1">
+        <v>1.2804</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.2974000000000001</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.3058000000000001</v>
+      </c>
+      <c r="F22" s="1">
+        <v>74.23</v>
+      </c>
+      <c r="G22" s="1">
+        <v>72.930000000000007</v>
+      </c>
+      <c r="H22" s="1">
+        <v>72.48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>10</v>
       </c>
       <c r="B23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C23" s="1">
+        <v>1.4837</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.5125</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.4973000000000001</v>
+      </c>
+      <c r="F23" s="1">
+        <v>81.62</v>
+      </c>
+      <c r="G23" s="1">
+        <v>82.44</v>
+      </c>
+      <c r="H23" s="1">
+        <v>80.430000000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>12</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C24" s="1">
+        <v>1.4579</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.4663999999999999</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.4739</v>
+      </c>
+      <c r="F24" s="1">
+        <v>82.88</v>
+      </c>
+      <c r="G24" s="1">
+        <v>81.94</v>
+      </c>
+      <c r="H24" s="1">
+        <v>82.62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>14</v>
       </c>
       <c r="B25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C25" s="1">
+        <v>1.5125</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.528</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.5212000000000001</v>
+      </c>
+      <c r="F25" s="1">
+        <v>88.76</v>
+      </c>
+      <c r="G25" s="1">
+        <v>87.38</v>
+      </c>
+      <c r="H25" s="1">
+        <v>86.92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0</v>
       </c>
       <c r="B26">
         <v>4.5</v>
       </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C26" s="1">
+        <v>0.1129</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.11559999999999999</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27">
         <v>4.5</v>
       </c>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C27" s="1">
+        <v>0.1598</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.1658</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.16769999999999999</v>
+      </c>
+      <c r="F27" s="1">
+        <v>30.88</v>
+      </c>
+      <c r="G27" s="1">
+        <v>31.62</v>
+      </c>
+      <c r="H27" s="1">
+        <v>30.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>4</v>
       </c>
       <c r="B28">
         <v>4.5</v>
       </c>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C28" s="1">
+        <v>0.31780000000000003</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.3145</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.32979999999999998</v>
+      </c>
+      <c r="F28" s="1">
+        <v>22.21</v>
+      </c>
+      <c r="G28" s="1">
+        <v>23.88</v>
+      </c>
+      <c r="H28" s="1">
+        <v>23.15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>6</v>
       </c>
       <c r="B29">
         <v>4.5</v>
       </c>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C29" s="1">
+        <v>0.6583</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.66890000000000005</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.67390000000000005</v>
+      </c>
+      <c r="F29" s="1">
+        <v>28.66</v>
+      </c>
+      <c r="G29" s="1">
+        <v>28.96</v>
+      </c>
+      <c r="H29" s="1">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>8</v>
       </c>
       <c r="B30">
         <v>4.5</v>
       </c>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C30" s="1">
+        <v>1.0163</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.0672999999999999</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1.073</v>
+      </c>
+      <c r="F30" s="1">
+        <v>51.89</v>
+      </c>
+      <c r="G30" s="1">
+        <v>54.24</v>
+      </c>
+      <c r="H30" s="1">
+        <v>53.67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>10</v>
       </c>
       <c r="B31">
         <v>4.5</v>
       </c>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C31" s="1">
+        <v>1.1726000000000001</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.1960999999999999</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1.1977</v>
+      </c>
+      <c r="F31" s="1">
+        <v>44.28</v>
+      </c>
+      <c r="G31" s="1">
+        <v>40.479999999999997</v>
+      </c>
+      <c r="H31" s="1">
+        <v>42.91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>12</v>
       </c>
       <c r="B32">
         <v>4.5</v>
       </c>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C32" s="1">
+        <v>1.3993</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.3918999999999999</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1.3853</v>
+      </c>
+      <c r="F32" s="1">
+        <v>46.47</v>
+      </c>
+      <c r="G32" s="1">
+        <v>47.67</v>
+      </c>
+      <c r="H32" s="1">
+        <v>42.12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>14</v>
       </c>
       <c r="B33">
         <v>4.5</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="1">
+        <v>1.6171</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1.6142000000000001</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1.6059000000000001</v>
+      </c>
+      <c r="F33" s="1">
+        <v>29.69</v>
+      </c>
+      <c r="G33" s="1">
+        <v>31.11</v>
+      </c>
+      <c r="H33" s="1">
+        <v>31.45</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
